--- a/trend_results/Rivers/MangatainokaatPutara_5247cf720e.xlsx
+++ b/trend_results/Rivers/MangatainokaatPutara_5247cf720e.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.441860247629198</v>
+        <v>0.558139752370802</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.997482121593529</v>
+        <v>0.002517878406471</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.981475076254414</v>
+        <v>0.018524923745586</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.532864235509463</v>
+        <v>0.467135764490537</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3074,14 +3074,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3089,31 +3089,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5</v>
+        <v>7.66592691586656e-06</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.0069930069930069</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8</v>
+        <v>0.622377622377622</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0009331204379562</v>
+        <v>0.0576974587912088</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0280112841541007</v>
+        <v>0.0374596698225061</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0102717562492721</v>
+        <v>0.0841031842459392</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.131425413796649</v>
+        <v>8.876532121724431</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3151,7 +3151,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3161,11 +3165,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3176,31 +3180,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.889664319040077</v>
+        <v>2.47349885196257e-06</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.141843971631206</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.439716312056738</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>140.95</v>
+        <v>2.55</v>
       </c>
       <c r="K31" t="n">
-        <v>1.49406797247764</v>
+        <v>-0.112433628538706</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.07966403620168</v>
+        <v>-0.162045252883762</v>
       </c>
       <c r="M31" t="n">
-        <v>5.31656004531014</v>
+        <v>-0.0525039042777836</v>
       </c>
       <c r="N31" t="n">
-        <v>1.05999856153079</v>
+        <v>-4.40916190347866</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3209,7 +3213,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3238,7 +3242,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3248,14 +3256,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3263,31 +3271,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.59675202974633</v>
+        <v>0.0012634366890119</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.783132530120482</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>7.85</v>
+        <v>11.075</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0231526088588588</v>
+        <v>-0.0374487354750514</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.221955657995421</v>
+        <v>-0.0597207685007719</v>
       </c>
       <c r="M32" t="n">
-        <v>0.163576566438762</v>
+        <v>-0.0165893976283244</v>
       </c>
       <c r="N32" t="n">
-        <v>0.294937692469539</v>
+        <v>-0.338137566366152</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3296,7 +3304,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3325,7 +3333,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3335,46 +3347,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.052294131414478</v>
+        <v>0.0579148115259838</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8</v>
+        <v>0.0662650602409639</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.725</v>
+        <v>0.00375</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0054139089968976</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0106730040853106</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0005846758429177</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.7467460685376039</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3412,7 +3424,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3422,14 +3438,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3437,31 +3453,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.429013828493761</v>
+        <v>0.0004420039560731</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.150602409638554</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.325301204819277</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>140.475</v>
+        <v>8.5</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.397442872687704</v>
+        <v>0.416097060833903</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.40945679266892</v>
+        <v>0.124829118250171</v>
       </c>
       <c r="M34" t="n">
-        <v>1.18564842904279</v>
+        <v>0.913337438510281</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.282927832488132</v>
+        <v>4.89525953922239</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3470,7 +3486,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3499,7 +3515,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3509,46 +3529,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.185546684761349</v>
+        <v>0.90466256413021</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.944099378881988</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.136645962732919</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J35" t="n">
-        <v>8.065</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0227922880690738</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.098509256617357</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0246748463337698</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.282607415611578</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3557,7 +3577,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3586,7 +3606,1253 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.451754440527714</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.66025641025641</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0448717948717949</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0009403723022618</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.301282051282051</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.217948717948718</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.00975</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0001999178981937</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0004171569442847</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.05043998147446</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9963313614817521</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.619631901840491</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0275429409300377</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0112072839097208</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0447553258918746</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.362884597233698</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.176691676026705</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0662650602409639</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.234939759036145</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0001429549902152</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0004004096434639</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.953033268101762</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.349017607042826</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.120481927710843</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.343373493975904</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0006742512631709</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0012041208791208</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.194939926082217</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0903614457831325</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.162650602409639</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0001999178981937</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.197141968536671</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.789156626506024</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6625</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0076733193277311</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0072386099106451</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0244684875986476</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.15823687965752</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0009331204379562</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0280112841541007</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0102717562492721</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.131425413796649</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>140.95</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.49406797247764</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-2.07966403620168</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5.31656004531014</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.05999856153079</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.0231526088588588</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.221955657995421</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.163576566438762</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.294937692469539</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.052294131414478</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0054139089968976</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0106730040853106</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.0005846758429177</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.7467460685376039</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.429013828493761</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>140.475</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.397442872687704</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.40945679266892</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.18564842904279</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.282927832488132</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.185546684761349</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8.065</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0227922880690738</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.098509256617357</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0246748463337698</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.282607415611578</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Putara</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.030955691047779</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.708397982932506</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-1.52981884763651</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.155587313555363</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.500634616913432</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1815287</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5493586</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_8a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangatainokaatPutara_5247cf720e.xlsx
+++ b/trend_results/Rivers/MangatainokaatPutara_5247cf720e.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.072645364154032</v>
+        <v>0.783066259075792</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8</v>
+        <v>0.770833333333333</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>0.9</v>
       </c>
       <c r="K2" t="n">
-        <v>0.137972184065934</v>
+        <v>-0.0660594093406594</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0198744397813347</v>
+        <v>-0.220884161542397</v>
       </c>
       <c r="M2" t="n">
-        <v>0.330189322447683</v>
+        <v>0.095740498034076</v>
       </c>
       <c r="N2" t="n">
-        <v>15.3302426739927</v>
+        <v>-7.33993437118437</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.992486442114998</v>
+        <v>0.891444494864275</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.647058823529412</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.347857142857143</v>
+        <v>0.237950407435701</v>
       </c>
       <c r="L3" t="n">
-        <v>0.120646644329346</v>
+        <v>-0.0523966038509717</v>
       </c>
       <c r="M3" t="n">
-        <v>0.536392459564316</v>
+        <v>0.484291048262893</v>
       </c>
       <c r="N3" t="n">
-        <v>16.5646258503401</v>
+        <v>10.3456698885088</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.558139752370802</v>
+        <v>0.286201595760143</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.975</v>
+        <v>10.98</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0165122061482817</v>
+        <v>-0.03808796507964</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0516162841681342</v>
+        <v>-0.16464538086705</v>
       </c>
       <c r="M4" t="n">
-        <v>0.159398470334606</v>
+        <v>0.0740039739266914</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1504529034012</v>
+        <v>-0.346884927865574</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0051814590553072</v>
+        <v>0.231166949331138</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="H5" t="n">
         <v>0.0862068965517241</v>
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00375</v>
+        <v>0.0025</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003871655564209</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>0.410381778198634</v>
       </c>
       <c r="G6" t="n">
-        <v>0.189655172413793</v>
+        <v>0.172413793103448</v>
       </c>
       <c r="H6" t="n">
-        <v>0.431034482758621</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.25833719582323</v>
+        <v>-1.69146273291174</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05977687637629</v>
+        <v>2.00686813186813</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0740740740740741</v>
+        <v>0.0545454545454545</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.368776061438887</v>
+        <v>0.988224599452514</v>
       </c>
       <c r="G8" t="n">
-        <v>0.741379310344828</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="H8" t="n">
         <v>0.0862068965517241</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1194,35 +1194,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.647809259017714</v>
+        <v>0.936922078909887</v>
       </c>
       <c r="G9" t="n">
-        <v>0.137931034482759</v>
+        <v>0.189655172413793</v>
       </c>
       <c r="H9" t="n">
-        <v>0.396551724137931</v>
+        <v>0.344827586206897</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.000664695177434</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.001003434065934</v>
+        <v>-0.0020003130267294</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0005017170329669999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>-6.04268343121846</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.002517878406471</v>
+        <v>0.00015720147175</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.810344827586207</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.69</v>
+        <v>7.555</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0936538461538462</v>
+        <v>-0.120412087912088</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.1456302625387</v>
+        <v>-0.171343145259399</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0413667946376635</v>
+        <v>-0.0685244987031859</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.21786535960788</v>
+        <v>-1.59380659049753</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1376,31 +1376,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.889270307392484</v>
+        <v>0.965756538942473</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.327586206896552</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0003753854059609</v>
+        <v>-0.0010541125541125</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0014102316602316</v>
+        <v>-0.002170915041979</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.50256937307297</v>
+        <v>-7.52937538651824</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1467,28 +1467,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.379816710794194</v>
+        <v>0.312979654660607</v>
       </c>
       <c r="G12" t="n">
-        <v>0.586206896551724</v>
+        <v>0.0517241379310345</v>
       </c>
       <c r="H12" t="n">
-        <v>0.206896551724138</v>
+        <v>0.275862068965517</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0.0025452961672473</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.007215233370714</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1554,35 +1554,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.222026316195196</v>
+        <v>0.0326729269137673</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0862068965517241</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.275862068965517</v>
+        <v>0.327586206896552</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.00060622406639</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0089507278508845</v>
+        <v>0.001476792302803</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>7.57780082987552</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0642273435212586</v>
+        <v>0.45725425513522</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.344827586206897</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.008</v>
+        <v>0.655</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0005017170329669999</v>
+        <v>0.0075077081192189</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-0.0596509115512145</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001111949725355</v>
+        <v>0.133241172908242</v>
       </c>
       <c r="N14" t="n">
-        <v>6.27146291208791</v>
+        <v>1.14621498003342</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1725,14 +1725,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.683102455573214</v>
+        <v>0.178099671321662</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H15" t="n">
-        <v>0.827586206896552</v>
+        <v>0.67</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>0.705</v>
+        <v>0.8</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0237175324675325</v>
+        <v>0.0252682214717883</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.105058976085264</v>
+        <v>-0.0162497844662087</v>
       </c>
       <c r="M15" t="n">
-        <v>0.068465749921948</v>
+        <v>0.0559681564175621</v>
       </c>
       <c r="N15" t="n">
-        <v>-3.36418900248688</v>
+        <v>3.15852768397354</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1816,46 +1816,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.263922451970411</v>
+        <v>0.397796689442505</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0097087378640776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.640776699029126</v>
+        <v>0.528089887640449</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0205026377178856</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0249658236500342</v>
+        <v>-0.0931135153953354</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0554246137905397</v>
+        <v>0.0703792849415613</v>
       </c>
       <c r="N16" t="n">
-        <v>2.27807085754284</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1907,14 +1907,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.021601642102385</v>
+        <v>0.169219854751786</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.510416666666667</v>
+        <v>0.811965811965812</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.44</v>
+        <v>10.97</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08553864168618271</v>
+        <v>-0.0120761204492499</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.165965280119546</v>
+        <v>-0.0351201923076924</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.011330710368866</v>
       </c>
       <c r="N17" t="n">
-        <v>-3.50568203631897</v>
+        <v>-0.110083139920236</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1998,46 +1998,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.967072508350619</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.457627118644068</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.076271186440678</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.018524923745586</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.8050847457627121</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.98</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0243023483365949</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0482969328009993</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0049693877551019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.221332862810518</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,14 +2089,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.775814284955433</v>
+        <v>0.362064915770086</v>
       </c>
       <c r="G19" t="n">
-        <v>0.432203389830508</v>
+        <v>0.177966101694915</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09322033898305079</v>
+        <v>0.322033898305085</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>16</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.658609679239135</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2180,47 +2180,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0.198243842153541</v>
-      </c>
+          <t>&lt; 5 Non-censored values</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>0.169491525423729</v>
+        <v>0.964601769911504</v>
       </c>
       <c r="H20" t="n">
-        <v>0.305084745762712</v>
+        <v>0.141592920353982</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
         <v>12</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.997433258586833</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -2228,7 +2216,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Not Analysed improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,7 +2247,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2259,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2282,24 +2270,36 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>&lt; 5 Non-censored values</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.781619619220781</v>
+      </c>
       <c r="G21" t="n">
-        <v>0.964601769911504</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="H21" t="n">
-        <v>0.141592920353982</v>
+        <v>0.0593220338983051</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
       <c r="O21" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Not Analysed improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2350,14 +2350,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2365,19 +2365,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.848139204496572</v>
+        <v>0.0063750008025501</v>
       </c>
       <c r="G22" t="n">
-        <v>0.576271186440678</v>
+        <v>0.296610169491525</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0593220338983051</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001</v>
+        <v>0.00925</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0004993368313094</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2441,46 +2441,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.24754271748745e-05</v>
+        <v>0.024430345148196</v>
       </c>
       <c r="G23" t="n">
-        <v>0.296610169491525</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.279661016949153</v>
+        <v>0.658119658119658</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01</v>
+        <v>7.6</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0004167617526243</v>
+        <v>-0.0233014946785781</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.0450736678568409</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0006444238998104</v>
+        <v>-0.0033019823226633</v>
       </c>
       <c r="N23" t="n">
-        <v>4.16761752624372</v>
+        <v>-0.306598614191817</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2518,11 +2518,7 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2532,43 +2528,43 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.467135764490537</v>
+        <v>0.304361985630459</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H24" t="n">
-        <v>0.64957264957265</v>
+        <v>0.364406779661017</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.65</v>
+        <v>0.0145</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0199254289759108</v>
+        <v>-3.83113346684612e-06</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0188609809440018</v>
+        <v>0.000748974709501</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2580,7 +2576,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2609,7 +2605,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2619,14 +2619,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2634,31 +2634,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0400267711806003</v>
+        <v>0.0431152432566956</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0677966101694915</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="H25" t="n">
-        <v>0.279661016949153</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.015</v>
+        <v>0.0645</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0004993164730006</v>
+        <v>0.0015653571428571</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0009989040134320999</v>
+        <v>0.0036194666417331</v>
       </c>
       <c r="N25" t="n">
-        <v>3.32877648667122</v>
+        <v>2.42691029900332</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2721,35 +2721,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.202326969678382</v>
+        <v>0.0476724662836589</v>
       </c>
       <c r="G26" t="n">
-        <v>0.432203389830508</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H26" t="n">
-        <v>0.169491525423729</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.008</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.0001425644028103</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07013248847926271</v>
+        <v>0.0003518781258505</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.78205503512881</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2812,35 +2812,35 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.282791307222212</v>
+        <v>0.169528250956471</v>
       </c>
       <c r="G27" t="n">
-        <v>0.11864406779661</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.347457627118644</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.0158116883116883</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0010107842794143</v>
+        <v>-0.0094882000961621</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0021612010595115</v>
+        <v>0.0518910339240601</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2.32524828113063</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2892,14 +2892,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2907,31 +2907,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0459077428223933</v>
+        <v>9.14106110531802e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0254237288135593</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="H28" t="n">
-        <v>0.211864406779661</v>
+        <v>0.618421052631579</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>0.008</v>
+        <v>0.625</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001445389790265</v>
+        <v>0.0469102450041062</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.0225201124117315</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0003525579150579</v>
+        <v>0.0652605996738162</v>
       </c>
       <c r="N28" t="n">
-        <v>1.80673723783142</v>
+        <v>7.50563920065699</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -2983,11 +2983,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2998,31 +2998,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.0476768525003747</v>
+        <v>5.5751761196543e-07</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="H29" t="n">
-        <v>0.822033898305085</v>
+        <v>0.445205479452055</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6585</v>
+        <v>2.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0252476958525345</v>
+        <v>-0.118587662337662</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-0.168802016321875</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0559182658937017</v>
+        <v>-0.0617517883417939</v>
       </c>
       <c r="N29" t="n">
-        <v>3.83412237699841</v>
+        <v>-4.7435064935065</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3089,31 +3089,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7.66592691586656e-06</v>
+        <v>0.001260100271388</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0069930069930069</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.622377622377622</v>
+        <v>0.774011299435028</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.65</v>
+        <v>11.05</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0576974587912088</v>
+        <v>-0.0332347588717014</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0374596698225061</v>
+        <v>-0.0529212289852736</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0841031842459392</v>
+        <v>-0.0149625820906366</v>
       </c>
       <c r="N30" t="n">
-        <v>8.876532121724431</v>
+        <v>-0.300767048612683</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3176,35 +3176,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.47349885196257e-06</v>
+        <v>0.250857390502341</v>
       </c>
       <c r="G31" t="n">
-        <v>0.141843971631206</v>
+        <v>0.51685393258427</v>
       </c>
       <c r="H31" t="n">
-        <v>0.439716312056738</v>
+        <v>0.0617977528089888</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.55</v>
+        <v>0.0025</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.112433628538706</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.162045252883762</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0525039042777836</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-4.40916190347866</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3271,31 +3271,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0012634366890119</v>
+        <v>6.621163557460801e-05</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.146067415730337</v>
       </c>
       <c r="H32" t="n">
-        <v>0.783132530120482</v>
+        <v>0.314606741573034</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>11.075</v>
+        <v>10.5</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0374487354750514</v>
+        <v>0.460399159663866</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0597207685007719</v>
+        <v>0.199154852780807</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0165893976283244</v>
+        <v>0.919644203499378</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.338137566366152</v>
+        <v>4.38475390156062</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3362,19 +3362,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0579148115259838</v>
+        <v>0.927243911282528</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>0.947976878612717</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0662650602409639</v>
+        <v>0.127167630057803</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J33" t="n">
-        <v>0.00375</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3438,46 +3438,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0004420039560731</v>
+        <v>0.718325137465738</v>
       </c>
       <c r="G34" t="n">
-        <v>0.150602409638554</v>
+        <v>0.68452380952381</v>
       </c>
       <c r="H34" t="n">
-        <v>0.325301204819277</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>8.5</v>
+        <v>0.001</v>
       </c>
       <c r="K34" t="n">
-        <v>0.416097060833903</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.124829118250171</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.913337438510281</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>4.89525953922239</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3529,14 +3529,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3544,19 +3544,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.90466256413021</v>
+        <v>0.0132439182018606</v>
       </c>
       <c r="G35" t="n">
-        <v>0.944099378881988</v>
+        <v>0.30952380952381</v>
       </c>
       <c r="H35" t="n">
-        <v>0.136645962732919</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="I35" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0002718314418132</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3631,35 +3631,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.451754440527714</v>
+        <v>0.932310986270265</v>
       </c>
       <c r="G36" t="n">
-        <v>0.66025641025641</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0448717948717949</v>
+        <v>0.605714285714286</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.001</v>
+        <v>7.57</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0141023166023163</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0289880952380952</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.186292161193082</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3697,11 +3697,7 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3711,7 +3707,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3722,35 +3718,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.0009403723022618</v>
+        <v>0.540856004241117</v>
       </c>
       <c r="G37" t="n">
-        <v>0.301282051282051</v>
+        <v>0.0617977528089888</v>
       </c>
       <c r="H37" t="n">
-        <v>0.217948717948718</v>
+        <v>0.382022471910112</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>0.00975</v>
+        <v>0.015</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0001999178981937</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-0.0001666922962715</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0004171569442847</v>
+        <v>0.0002498917852593</v>
       </c>
       <c r="N37" t="n">
-        <v>2.05043998147446</v>
+        <v>0</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3759,7 +3755,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3790,7 +3786,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3798,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3813,35 +3809,35 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9963313614817521</v>
+        <v>0.314938182160664</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.112359550561798</v>
       </c>
       <c r="H38" t="n">
-        <v>0.619631901840491</v>
+        <v>0.325842696629214</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>7.59</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0275429409300377</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0112072839097208</v>
+        <v>-0.000433810511008</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0447553258918746</v>
+        <v>0.0011942888321474</v>
       </c>
       <c r="N38" t="n">
-        <v>0.362884597233698</v>
+        <v>0</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3850,7 +3846,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3879,7 +3875,11 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3889,14 +3889,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3904,31 +3904,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.176691676026705</v>
+        <v>0.131398373503767</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0662650602409639</v>
+        <v>0.0842696629213483</v>
       </c>
       <c r="H39" t="n">
-        <v>0.234939759036145</v>
+        <v>0.162921348314607</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0.015</v>
+        <v>0.008</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0001429549902152</v>
+        <v>4.16761752624373e-05</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0004004096434639</v>
+        <v>0.0002017455366737</v>
       </c>
       <c r="N39" t="n">
-        <v>0.953033268101762</v>
+        <v>0.520952190780466</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3991,35 +3991,35 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.349017607042826</v>
+        <v>0.238600841205899</v>
       </c>
       <c r="G40" t="n">
-        <v>0.120481927710843</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.343373493975904</v>
+        <v>0.7752808988764049</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6625</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.0055848623853211</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0006742512631709</v>
+        <v>-0.0074907339305682</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0012041208791208</v>
+        <v>0.0222729155999975</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.8429980958975249</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4071,46 +4071,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.194939926082217</v>
+        <v>0.306677177977373</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0903614457831325</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.162650602409639</v>
+        <v>0.8</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.008</v>
+        <v>0.71</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-0.0061717726630972</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>-0.0245858179521123</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0001999178981937</v>
+        <v>0.009660078685506101</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>-0.869263755365816</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4148,11 +4148,7 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4162,11 +4158,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -4177,31 +4173,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.197141968536671</v>
+        <v>0.5</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.789156626506024</v>
+        <v>0.8</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.6625</v>
+        <v>140.95</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0076733193277311</v>
+        <v>-0.222143085787449</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0072386099106451</v>
+        <v>-1.90832765626428</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0244684875986476</v>
+        <v>0.379676351656179</v>
       </c>
       <c r="N42" t="n">
-        <v>1.15823687965752</v>
+        <v>-0.157604175798119</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4210,7 +4206,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4239,11 +4235,7 @@
           <t>Mana_8a</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4253,7 +4245,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4268,31 +4260,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.5</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.71</v>
+        <v>7.85</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0009331204379562</v>
+        <v>0.0583244108667894</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0280112841541007</v>
+        <v>-0.172027917778802</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0102717562492721</v>
+        <v>0.211658338173476</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.131425413796649</v>
+        <v>0.742986125691585</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4301,7 +4293,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4340,11 +4332,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4355,31 +4347,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.889664319040077</v>
+        <v>0.023646141743167</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>140.95</v>
+        <v>0.7135</v>
       </c>
       <c r="K44" t="n">
-        <v>1.49406797247764</v>
+        <v>-0.0056481958762886</v>
       </c>
       <c r="L44" t="n">
-        <v>-2.07966403620168</v>
+        <v>-0.0110142760138518</v>
       </c>
       <c r="M44" t="n">
-        <v>5.31656004531014</v>
+        <v>-0.0013118448082258</v>
       </c>
       <c r="N44" t="n">
-        <v>1.05999856153079</v>
+        <v>-0.791618202703387</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4388,7 +4380,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4427,11 +4419,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4442,31 +4434,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.59675202974633</v>
+        <v>0.673288952622341</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>7.85</v>
+        <v>140</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0231526088588588</v>
+        <v>0.338194444444444</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.221955657995421</v>
+        <v>-0.897915136349441</v>
       </c>
       <c r="M45" t="n">
-        <v>0.163576566438762</v>
+        <v>1.38399113911409</v>
       </c>
       <c r="N45" t="n">
-        <v>0.294937692469539</v>
+        <v>0.24156746031746</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4475,7 +4467,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4514,7 +4506,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4529,31 +4521,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.052294131414478</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.725</v>
+        <v>8.111499999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0054139089968976</v>
+        <v>-0.0439206749418154</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0106730040853106</v>
+        <v>-0.0994478624907095</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0005846758429177</v>
+        <v>0.0164293157943649</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.7467460685376039</v>
+        <v>-0.541461812757387</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4562,7 +4554,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4601,46 +4593,46 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.429013828493761</v>
+        <v>0.5</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>140.475</v>
+        <v>0.71</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.397442872687704</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.40945679266892</v>
+        <v>-0.0054749797193936</v>
       </c>
       <c r="M47" t="n">
-        <v>1.18564842904279</v>
+        <v>0.0128517491231502</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.282927832488132</v>
+        <v>0</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4688,11 +4680,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4703,31 +4695,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.185546684761349</v>
+        <v>0.026364814382588</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>8.065</v>
+        <v>141</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0227922880690738</v>
+        <v>-0.65057251908397</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.098509256617357</v>
+        <v>-1.28760112970386</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0246748463337698</v>
+        <v>-0.162811112516573</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.282607415611578</v>
+        <v>-0.461398949704943</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4736,7 +4728,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4775,7 +4767,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4790,31 +4782,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.030955691047779</v>
+        <v>0.744389827655904</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.857142857142857</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>141.5</v>
+        <v>8.016500000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.708397982932506</v>
+        <v>0.0124402424056459</v>
       </c>
       <c r="L49" t="n">
-        <v>-1.52981884763651</v>
+        <v>-0.0275191013609002</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.155587313555363</v>
+        <v>0.0719001773111039</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.500634616913432</v>
+        <v>0.155182965204838</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4823,7 +4815,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">

--- a/trend_results/Rivers/MangatainokaatPutara_5247cf720e.xlsx
+++ b/trend_results/Rivers/MangatainokaatPutara_5247cf720e.xlsx
@@ -139,55 +139,55 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
     <t>&lt; 3 unique values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
-    <t>&lt; 5 Non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
+    <t>Likely increasing</t>
   </si>
   <si>
     <t>Unlikely improving</t>
   </si>
   <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
   </si>
   <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
+    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -669,37 +669,37 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.783066259075792</v>
+        <v>0.724138937468252</v>
       </c>
       <c r="G2">
-        <v>0.0416666666666667</v>
+        <v>0.0408163265306122</v>
       </c>
       <c r="H2">
-        <v>0.770833333333333</v>
+        <v>0.73469387755102</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>-0.0660594093406594</v>
+        <v>-0.0499775094829943</v>
       </c>
       <c r="L2">
-        <v>-0.220884161542397</v>
+        <v>-0.2129622184364</v>
       </c>
       <c r="M2">
-        <v>0.095740498034076</v>
+        <v>0.113602314144018</v>
       </c>
       <c r="N2">
-        <v>-7.33993437118437</v>
+        <v>-4.99775094829943</v>
       </c>
       <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" t="s">
         <v>45</v>
-      </c>
-      <c r="P2" t="s">
-        <v>46</v>
       </c>
       <c r="Q2">
         <v>1815287</v>
@@ -740,37 +740,37 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.891444494864275</v>
+        <v>0.831951363031344</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.688888888888889</v>
+        <v>0.681818181818182</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K3">
-        <v>0.237950407435701</v>
+        <v>0.129145101413684</v>
       </c>
       <c r="L3">
-        <v>-0.0523966038509717</v>
+        <v>-0.0859526507078581</v>
       </c>
       <c r="M3">
-        <v>0.484291048262893</v>
+        <v>0.377797078882343</v>
       </c>
       <c r="N3">
-        <v>10.3456698885088</v>
+        <v>5.16580405654735</v>
       </c>
       <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s">
         <v>45</v>
-      </c>
-      <c r="P3" t="s">
-        <v>46</v>
       </c>
       <c r="Q3">
         <v>1815287</v>
@@ -805,43 +805,43 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.286201595760143</v>
+        <v>0.879006734688358</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.947368421052632</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.98</v>
+        <v>10.965</v>
       </c>
       <c r="K4">
-        <v>-0.03808796507964</v>
+        <v>0.0351201923076916</v>
       </c>
       <c r="L4">
-        <v>-0.16464538086705</v>
+        <v>-0.0266579883676909</v>
       </c>
       <c r="M4">
-        <v>0.0740039739266914</v>
+        <v>0.110339367521105</v>
       </c>
       <c r="N4">
-        <v>-0.346884927865574</v>
+        <v>0.320293591497415</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q4">
         <v>1815287</v>
@@ -882,19 +882,19 @@
         <v>41</v>
       </c>
       <c r="F5">
-        <v>0.231166949331138</v>
+        <v>0.130487766427181</v>
       </c>
       <c r="G5">
-        <v>0.551724137931034</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0862068965517241</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0025</v>
+        <v>0.004</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -903,16 +903,16 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0004146025729273</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>1815287</v>
@@ -950,40 +950,40 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6">
-        <v>0.410381778198634</v>
+        <v>0.7320611177387319</v>
       </c>
       <c r="G6">
-        <v>0.172413793103448</v>
+        <v>0.224137931034483</v>
       </c>
       <c r="H6">
-        <v>0.396551724137931</v>
+        <v>0.448275862068966</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>16</v>
+        <v>14.2</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>-1.69146273291174</v>
+        <v>-2.67056709442552</v>
       </c>
       <c r="M6">
-        <v>2.00686813186813</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" t="s">
         <v>45</v>
-      </c>
-      <c r="P6" t="s">
-        <v>49</v>
       </c>
       <c r="Q6">
         <v>1815287</v>
@@ -1021,22 +1021,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.0545454545454545</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q7">
         <v>1815287</v>
@@ -1074,16 +1074,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <v>0.988224599452514</v>
+        <v>0.999936296887117</v>
       </c>
       <c r="G8">
-        <v>0.758620689655172</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="H8">
-        <v>0.0862068965517241</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q8">
         <v>1815287</v>
@@ -1148,13 +1148,13 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.936922078909887</v>
+        <v>0.885003167301898</v>
       </c>
       <c r="G9">
-        <v>0.189655172413793</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="H9">
-        <v>0.344827586206897</v>
+        <v>0.372881355932203</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1163,22 +1163,22 @@
         <v>0.011</v>
       </c>
       <c r="K9">
-        <v>-0.000664695177434</v>
+        <v>-0.0003355569833392</v>
       </c>
       <c r="L9">
-        <v>-0.0020003130267294</v>
+        <v>-0.0011247650117021</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-6.04268343121846</v>
+        <v>-3.05051803035674</v>
       </c>
       <c r="O9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" t="s">
         <v>45</v>
-      </c>
-      <c r="P9" t="s">
-        <v>52</v>
       </c>
       <c r="Q9">
         <v>1815287</v>
@@ -1219,37 +1219,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.00015720147175</v>
+        <v>0.437622748866596</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.827586206896552</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.555</v>
+        <v>7.54</v>
       </c>
       <c r="K10">
-        <v>-0.120412087912088</v>
+        <v>-0.0051661951909475</v>
       </c>
       <c r="L10">
-        <v>-0.171343145259399</v>
+        <v>-0.0589964595822782</v>
       </c>
       <c r="M10">
-        <v>-0.0685244987031859</v>
+        <v>0.0412307764417372</v>
       </c>
       <c r="N10">
-        <v>-1.59380659049753</v>
+        <v>-0.068517177598774</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q10">
         <v>1815287</v>
@@ -1287,13 +1287,13 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.965756538942473</v>
+        <v>0.906017868025465</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.413793103448276</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1302,19 +1302,19 @@
         <v>0.014</v>
       </c>
       <c r="K11">
-        <v>-0.0010541125541125</v>
+        <v>-0.0010435714285714</v>
       </c>
       <c r="L11">
-        <v>-0.002170915041979</v>
+        <v>-0.0022937589192584</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>-7.52937538651824</v>
+        <v>-7.45408163265306</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P11" t="s">
         <v>51</v>
@@ -1355,40 +1355,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>0.312979654660607</v>
+        <v>0.986332506145976</v>
       </c>
       <c r="G12">
-        <v>0.0517241379310345</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.275862068965517</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0.07000000000000001</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-0.0057339089481946</v>
       </c>
       <c r="L12">
-        <v>-0.0025452961672473</v>
+        <v>-0.0104336699479974</v>
       </c>
       <c r="M12">
-        <v>0.007215233370714</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>-8.19129849742095</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q12">
         <v>1815287</v>
@@ -1429,13 +1429,13 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0326729269137673</v>
+        <v>0.833069615847688</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.327586206896552</v>
+        <v>0.322033898305085</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1444,22 +1444,22 @@
         <v>0.008</v>
       </c>
       <c r="K13">
-        <v>0.00060622406639</v>
+        <v>-0.0002622038765254</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="M13">
-        <v>0.001476792302803</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>7.57780082987552</v>
+        <v>-3.27754845656856</v>
       </c>
       <c r="O13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" t="s">
         <v>45</v>
-      </c>
-      <c r="P13" t="s">
-        <v>54</v>
       </c>
       <c r="Q13">
         <v>1815287</v>
@@ -1500,37 +1500,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.45725425513522</v>
+        <v>0.948333042688476</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.844827586206897</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.655</v>
+        <v>0.64</v>
       </c>
       <c r="K14">
-        <v>0.0075077081192189</v>
+        <v>-0.0816399416909621</v>
       </c>
       <c r="L14">
-        <v>-0.0596509115512145</v>
+        <v>-0.198480821595436</v>
       </c>
       <c r="M14">
-        <v>0.133241172908242</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.14621498003342</v>
+        <v>-12.7562408892128</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q14">
         <v>1815287</v>
@@ -1571,37 +1571,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.178099671321662</v>
+        <v>0.20081612321677</v>
       </c>
       <c r="G15">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="H15">
-        <v>0.67</v>
+        <v>0.676470588235294</v>
       </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="K15">
-        <v>0.0252682214717883</v>
+        <v>0.0224018347201255</v>
       </c>
       <c r="L15">
-        <v>-0.0162497844662087</v>
+        <v>-0.0138230715704613</v>
       </c>
       <c r="M15">
-        <v>0.0559681564175621</v>
+        <v>0.0564383677370538</v>
       </c>
       <c r="N15">
-        <v>3.15852768397354</v>
+        <v>2.71537390546975</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q15">
         <v>1815287</v>
@@ -1639,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>0.397796689442505</v>
+        <v>0.937226800029441</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.528089887640449</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>2.1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.08060990158067401</v>
       </c>
       <c r="L16">
-        <v>-0.0931135153953354</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0703792849415613</v>
+        <v>0.165235991505527</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>3.83856674193686</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q16">
         <v>1815287</v>
@@ -1713,37 +1713,37 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.169219854751786</v>
+        <v>0.615005979884704</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.811965811965812</v>
+        <v>0.82051282051282</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.97</v>
+        <v>10.96</v>
       </c>
       <c r="K17">
-        <v>-0.0120761204492499</v>
+        <v>0.0046231599197056</v>
       </c>
       <c r="L17">
-        <v>-0.0351201923076924</v>
+        <v>-0.0200610693067459</v>
       </c>
       <c r="M17">
-        <v>0.011330710368866</v>
+        <v>0.0256225345482133</v>
       </c>
       <c r="N17">
-        <v>-0.110083139920236</v>
+        <v>0.0421821160557082</v>
       </c>
       <c r="O17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q17">
         <v>1815287</v>
@@ -1781,22 +1781,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18">
-        <v>0.967072508350619</v>
+        <v>0.935065113055598</v>
       </c>
       <c r="G18">
-        <v>0.457627118644068</v>
+        <v>0.508474576271186</v>
       </c>
       <c r="H18">
-        <v>0.076271186440678</v>
+        <v>0.0593220338983051</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.005</v>
+        <v>0.0025</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P18" t="s">
         <v>51</v>
@@ -1852,16 +1852,16 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19">
-        <v>0.362064915770086</v>
+        <v>0.6608959527070351</v>
       </c>
       <c r="G19">
-        <v>0.177966101694915</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H19">
-        <v>0.322033898305085</v>
+        <v>0.367521367521368</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1873,19 +1873,19 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-0.332347588717015</v>
       </c>
       <c r="M19">
-        <v>0.658609679239135</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q19">
         <v>1815287</v>
@@ -1923,22 +1923,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20">
-        <v>0.964601769911504</v>
+        <v>0.982300884955752</v>
       </c>
       <c r="H20">
-        <v>0.141592920353982</v>
+        <v>0.123893805309735</v>
       </c>
       <c r="I20">
         <v>12</v>
       </c>
       <c r="O20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q20">
         <v>1815287</v>
@@ -1976,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21">
-        <v>0.781619619220781</v>
+        <v>0.987172732453929</v>
       </c>
       <c r="G21">
-        <v>0.6610169491525421</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="H21">
         <v>0.0593220338983051</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q21">
         <v>1815287</v>
@@ -2047,22 +2047,22 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22">
-        <v>0.0063750008025501</v>
+        <v>0.125250921412504</v>
       </c>
       <c r="G22">
-        <v>0.296610169491525</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="H22">
-        <v>0.254237288135593</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.00925</v>
+        <v>0.01095</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2071,16 +2071,16 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.0004993368313094</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="Q22">
         <v>1815287</v>
@@ -2121,37 +2121,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.024430345148196</v>
+        <v>0.014387998615337</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.658119658119658</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.6</v>
+        <v>7.63</v>
       </c>
       <c r="K23">
-        <v>-0.0233014946785781</v>
+        <v>-0.0236239808991381</v>
       </c>
       <c r="L23">
-        <v>-0.0450736678568409</v>
+        <v>-0.0447290503878025</v>
       </c>
       <c r="M23">
-        <v>-0.0033019823226633</v>
+        <v>-0.0054868342845712</v>
       </c>
       <c r="N23">
-        <v>-0.306598614191817</v>
+        <v>-0.30961967102409</v>
       </c>
       <c r="O23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q23">
         <v>1815287</v>
@@ -2186,40 +2186,40 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24">
-        <v>0.304361985630459</v>
+        <v>0.758268383446779</v>
       </c>
       <c r="G24">
         <v>0.0677966101694915</v>
       </c>
       <c r="H24">
-        <v>0.364406779661017</v>
+        <v>0.305084745762712</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.0145</v>
+        <v>0.015</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>-3.83113346684612E-06</v>
+        <v>-0.0003325298400776</v>
       </c>
       <c r="M24">
-        <v>0.000748974709501</v>
+        <v>0.000190313623296</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" t="s">
         <v>45</v>
-      </c>
-      <c r="P24" t="s">
-        <v>48</v>
       </c>
       <c r="Q24">
         <v>1815287</v>
@@ -2257,40 +2257,40 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F25">
-        <v>0.0431152432566956</v>
+        <v>0.120411484681003</v>
       </c>
       <c r="G25">
         <v>0.11864406779661</v>
       </c>
       <c r="H25">
-        <v>0.288135593220339</v>
+        <v>0.194915254237288</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.0645</v>
+        <v>0.06</v>
       </c>
       <c r="K25">
-        <v>0.0015653571428571</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.0036194666417331</v>
+        <v>0.0028674060371295</v>
       </c>
       <c r="N25">
-        <v>2.42691029900332</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q25">
         <v>1815287</v>
@@ -2328,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F26">
-        <v>0.0476724662836589</v>
+        <v>0.495331045038427</v>
       </c>
       <c r="G26">
         <v>0.0169491525423729</v>
@@ -2346,22 +2346,22 @@
         <v>0.008</v>
       </c>
       <c r="K26">
-        <v>0.0001425644028103</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-0.0001355098654844</v>
       </c>
       <c r="M26">
-        <v>0.0003518781258505</v>
+        <v>0.0001506929530683</v>
       </c>
       <c r="N26">
-        <v>1.78205503512881</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q26">
         <v>1815287</v>
@@ -2402,37 +2402,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.169528250956471</v>
+        <v>0.84027624087151</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.813559322033898</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.68</v>
+        <v>0.665</v>
       </c>
       <c r="K27">
-        <v>0.0158116883116883</v>
+        <v>-0.0131384892086331</v>
       </c>
       <c r="L27">
-        <v>-0.0094882000961621</v>
+        <v>-0.0427693208430914</v>
       </c>
       <c r="M27">
-        <v>0.0518910339240601</v>
+        <v>0.0094022288588367</v>
       </c>
       <c r="N27">
-        <v>2.32524828113063</v>
+        <v>-1.97571266295235</v>
       </c>
       <c r="O27" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" t="s">
         <v>45</v>
-      </c>
-      <c r="P27" t="s">
-        <v>48</v>
       </c>
       <c r="Q27">
         <v>1815287</v>
@@ -2473,34 +2473,34 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>9.14106110531802E-05</v>
+        <v>0.0003786181113669</v>
       </c>
       <c r="G28">
-        <v>0.0131578947368421</v>
+        <v>0.0125</v>
       </c>
       <c r="H28">
-        <v>0.618421052631579</v>
+        <v>0.58125</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="K28">
-        <v>0.0469102450041062</v>
+        <v>0.0341465466599988</v>
       </c>
       <c r="L28">
-        <v>0.0225201124117315</v>
+        <v>0.0182143020187178</v>
       </c>
       <c r="M28">
-        <v>0.0652605996738162</v>
+        <v>0.0538999524036371</v>
       </c>
       <c r="N28">
-        <v>7.50563920065699</v>
+        <v>4.87807809428555</v>
       </c>
       <c r="O28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P28" t="s">
         <v>55</v>
@@ -2544,34 +2544,34 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>5.5751761196543E-07</v>
+        <v>1.17865201330059E-05</v>
       </c>
       <c r="G29">
-        <v>0.136986301369863</v>
+        <v>0.110344827586207</v>
       </c>
       <c r="H29">
-        <v>0.445205479452055</v>
+        <v>0.468965517241379</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29">
         <v>2.5</v>
       </c>
       <c r="K29">
-        <v>-0.118587662337662</v>
+        <v>-0.08553864168618271</v>
       </c>
       <c r="L29">
-        <v>-0.168802016321875</v>
+        <v>-0.135437292168054</v>
       </c>
       <c r="M29">
-        <v>-0.0617517883417939</v>
+        <v>-0.0358215442888399</v>
       </c>
       <c r="N29">
-        <v>-4.7435064935065</v>
+        <v>-3.42154566744731</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P29" t="s">
         <v>55</v>
@@ -2615,37 +2615,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.001260100271388</v>
+        <v>0.0205308268329</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.774011299435028</v>
+        <v>0.768361581920904</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>11.05</v>
+        <v>10.98</v>
       </c>
       <c r="K30">
-        <v>-0.0332347588717014</v>
+        <v>-0.0199408553230211</v>
       </c>
       <c r="L30">
-        <v>-0.0529212289852736</v>
+        <v>-0.0339860426929396</v>
       </c>
       <c r="M30">
-        <v>-0.0149625820906366</v>
+        <v>-0.0049693877551019</v>
       </c>
       <c r="N30">
-        <v>-0.300767048612683</v>
+        <v>-0.18161070421695</v>
       </c>
       <c r="O30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q30">
         <v>1815287</v>
@@ -2683,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F31">
-        <v>0.250857390502341</v>
+        <v>0.722388207996421</v>
       </c>
       <c r="G31">
-        <v>0.51685393258427</v>
+        <v>0.52247191011236</v>
       </c>
       <c r="H31">
         <v>0.0617977528089888</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" t="s">
         <v>45</v>
-      </c>
-      <c r="P31" t="s">
-        <v>48</v>
       </c>
       <c r="Q31">
         <v>1815287</v>
@@ -2754,37 +2754,37 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F32">
-        <v>6.621163557460801E-05</v>
+        <v>0.0067463017220578</v>
       </c>
       <c r="G32">
-        <v>0.146067415730337</v>
+        <v>0.175141242937853</v>
       </c>
       <c r="H32">
-        <v>0.314606741573034</v>
+        <v>0.344632768361582</v>
       </c>
       <c r="I32">
         <v>3</v>
       </c>
       <c r="J32">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="K32">
-        <v>0.460399159663866</v>
+        <v>0.250256937307297</v>
       </c>
       <c r="L32">
-        <v>0.199154852780807</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>0.919644203499378</v>
+        <v>0.594646014295476</v>
       </c>
       <c r="N32">
-        <v>4.38475390156062</v>
+        <v>2.27506306642997</v>
       </c>
       <c r="O32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P32" t="s">
         <v>55</v>
@@ -2825,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>0.927243911282528</v>
+        <v>0.974038431187897</v>
       </c>
       <c r="G33">
         <v>0.947976878612717</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P33" t="s">
         <v>52</v>
@@ -2896,16 +2896,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F34">
-        <v>0.718325137465738</v>
+        <v>0.886930073110772</v>
       </c>
       <c r="G34">
-        <v>0.68452380952381</v>
+        <v>0.702247191011236</v>
       </c>
       <c r="H34">
-        <v>0.0416666666666667</v>
+        <v>0.0393258426966292</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
+        <v>44</v>
+      </c>
+      <c r="P34" t="s">
         <v>45</v>
-      </c>
-      <c r="P34" t="s">
-        <v>46</v>
       </c>
       <c r="Q34">
         <v>1815287</v>
@@ -2967,22 +2967,22 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35">
-        <v>0.0132439182018606</v>
+        <v>0.023769735891777</v>
       </c>
       <c r="G35">
-        <v>0.30952380952381</v>
+        <v>0.303370786516854</v>
       </c>
       <c r="H35">
-        <v>0.208333333333333</v>
+        <v>0.196629213483146</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2991,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.0002718314418132</v>
+        <v>0.0001665448476866</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q35">
         <v>1815287</v>
@@ -3041,37 +3041,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.932310986270265</v>
+        <v>0.349577799221133</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.605714285714286</v>
+        <v>0.5625</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.57</v>
+        <v>7.62</v>
       </c>
       <c r="K36">
-        <v>0.0141023166023163</v>
+        <v>-0.0021786459886669</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>-0.0135854394250236</v>
       </c>
       <c r="M36">
-        <v>0.0289880952380952</v>
+        <v>0.008622525805272299</v>
       </c>
       <c r="N36">
-        <v>0.186292161193082</v>
+        <v>-0.0285911547069149</v>
       </c>
       <c r="O36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q36">
         <v>1815287</v>
@@ -3106,40 +3106,40 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37">
-        <v>0.540856004241117</v>
+        <v>0.84693592876566</v>
       </c>
       <c r="G37">
-        <v>0.0617977528089888</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="H37">
-        <v>0.382022471910112</v>
+        <v>0.370786516853933</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0.015</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>-8.73803827751197E-05</v>
       </c>
       <c r="L37">
-        <v>-0.0001666922962715</v>
+        <v>-0.0003330297194683</v>
       </c>
       <c r="M37">
-        <v>0.0002498917852593</v>
+        <v>5.51317109414063E-05</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>-0.582535885167465</v>
       </c>
       <c r="O37" t="s">
+        <v>44</v>
+      </c>
+      <c r="P37" t="s">
         <v>45</v>
-      </c>
-      <c r="P37" t="s">
-        <v>49</v>
       </c>
       <c r="Q37">
         <v>1815287</v>
@@ -3177,16 +3177,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F38">
-        <v>0.314938182160664</v>
+        <v>0.708842193514441</v>
       </c>
       <c r="G38">
-        <v>0.112359550561798</v>
+        <v>0.0842696629213483</v>
       </c>
       <c r="H38">
-        <v>0.325842696629214</v>
+        <v>0.314606741573034</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -3198,19 +3198,19 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>-0.000433810511008</v>
+        <v>-0.0012659666895876</v>
       </c>
       <c r="M38">
-        <v>0.0011942888321474</v>
+        <v>9.674745730069581E-05</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" t="s">
         <v>45</v>
-      </c>
-      <c r="P38" t="s">
-        <v>48</v>
       </c>
       <c r="Q38">
         <v>1815287</v>
@@ -3248,16 +3248,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F39">
-        <v>0.131398373503767</v>
+        <v>0.305882934484217</v>
       </c>
       <c r="G39">
-        <v>0.0842696629213483</v>
+        <v>0.0786516853932584</v>
       </c>
       <c r="H39">
-        <v>0.162921348314607</v>
+        <v>0.157303370786517</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -3266,22 +3266,22 @@
         <v>0.008</v>
       </c>
       <c r="K39">
-        <v>4.16761752624373E-05</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.0002017455366737</v>
+        <v>0.000151549201476</v>
       </c>
       <c r="N39">
-        <v>0.520952190780466</v>
+        <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q39">
         <v>1815287</v>
@@ -3322,37 +3322,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.238600841205899</v>
+        <v>0.554536648528076</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.7752808988764049</v>
+        <v>0.747191011235955</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.6625</v>
+        <v>0.6535</v>
       </c>
       <c r="K40">
-        <v>0.0055848623853211</v>
+        <v>-0.0010332390381895</v>
       </c>
       <c r="L40">
-        <v>-0.0074907339305682</v>
+        <v>-0.0129274739035308</v>
       </c>
       <c r="M40">
-        <v>0.0222729155999975</v>
+        <v>0.0119157912986758</v>
       </c>
       <c r="N40">
-        <v>0.8429980958975249</v>
+        <v>-0.158108498575292</v>
       </c>
       <c r="O40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q40">
         <v>1815287</v>
@@ -3393,7 +3393,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.306677177977373</v>
+        <v>0.021631363903455</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>0.71</v>
       </c>
       <c r="K41">
-        <v>-0.0061717726630972</v>
+        <v>-0.0202324384363858</v>
       </c>
       <c r="L41">
-        <v>-0.0245858179521123</v>
+        <v>-0.0313589016112871</v>
       </c>
       <c r="M41">
-        <v>0.009660078685506101</v>
+        <v>-0.0129982832779407</v>
       </c>
       <c r="N41">
-        <v>-0.869263755365816</v>
+        <v>-2.84963921639236</v>
       </c>
       <c r="O41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="Q41">
         <v>1815287</v>
@@ -3461,13 +3461,13 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.5</v>
+        <v>0.04320536648685</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3476,22 +3476,22 @@
         <v>140.95</v>
       </c>
       <c r="K42">
-        <v>-0.222143085787449</v>
+        <v>-1.49555067567567</v>
       </c>
       <c r="L42">
-        <v>-1.90832765626428</v>
+        <v>-3.47234772705815</v>
       </c>
       <c r="M42">
-        <v>0.379676351656179</v>
+        <v>-0.754428420707655</v>
       </c>
       <c r="N42">
-        <v>-0.157604175798119</v>
+        <v>-1.06105049710938</v>
       </c>
       <c r="O42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="Q42">
         <v>1815287</v>
@@ -3529,7 +3529,7 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.889664319040077</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3544,22 +3544,22 @@
         <v>7.85</v>
       </c>
       <c r="K43">
-        <v>0.0583244108667894</v>
+        <v>-0.0525653658794874</v>
       </c>
       <c r="L43">
-        <v>-0.172027917778802</v>
+        <v>-0.374788977195784</v>
       </c>
       <c r="M43">
-        <v>0.211658338173476</v>
+        <v>0.122745682804398</v>
       </c>
       <c r="N43">
-        <v>0.742986125691585</v>
+        <v>-0.669622495280095</v>
       </c>
       <c r="O43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q43">
         <v>1815287</v>
@@ -3597,37 +3597,37 @@
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.023646141743167</v>
+        <v>0.0076611205275499</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.7135</v>
+        <v>0.71</v>
       </c>
       <c r="K44">
-        <v>-0.0056481958762886</v>
+        <v>-0.0085019397535372</v>
       </c>
       <c r="L44">
-        <v>-0.0110142760138518</v>
+        <v>-0.01565947879756</v>
       </c>
       <c r="M44">
-        <v>-0.0013118448082258</v>
+        <v>-0.0035998693062084</v>
       </c>
       <c r="N44">
-        <v>-0.791618202703387</v>
+        <v>-1.1974563033151</v>
       </c>
       <c r="O44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q44">
         <v>1815287</v>
@@ -3662,10 +3662,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45">
-        <v>0.673288952622341</v>
+        <v>0.5</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3680,22 +3680,22 @@
         <v>140</v>
       </c>
       <c r="K45">
-        <v>0.338194444444444</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>-0.897915136349441</v>
+        <v>-1.05680272835444</v>
       </c>
       <c r="M45">
-        <v>1.38399113911409</v>
+        <v>1.27964627082927</v>
       </c>
       <c r="N45">
-        <v>0.24156746031746</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q45">
         <v>1815287</v>
@@ -3733,7 +3733,7 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.141565435331173</v>
+        <v>0.07620314197837499</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3745,25 +3745,25 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>8.111499999999999</v>
+        <v>7.9765</v>
       </c>
       <c r="K46">
-        <v>-0.0439206749418154</v>
+        <v>-0.0458011904761903</v>
       </c>
       <c r="L46">
-        <v>-0.0994478624907095</v>
+        <v>-0.107742905771929</v>
       </c>
       <c r="M46">
-        <v>0.0164293157943649</v>
+        <v>0.0036992284743871</v>
       </c>
       <c r="N46">
-        <v>-0.541461812757387</v>
+        <v>-0.5742015981469361</v>
       </c>
       <c r="O46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q46">
         <v>1815287</v>
@@ -3798,16 +3798,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F47">
-        <v>0.5</v>
+        <v>0.345731498695378</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.857142857142857</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3816,22 +3816,22 @@
         <v>0.71</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>-0.0015433098591548</v>
       </c>
       <c r="L47">
-        <v>-0.0054749797193936</v>
+        <v>-0.006873941251129</v>
       </c>
       <c r="M47">
-        <v>0.0128517491231502</v>
+        <v>0.008945321778095899</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>-0.217367585796461</v>
       </c>
       <c r="O47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P47" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q47">
         <v>1815287</v>
@@ -3869,7 +3869,7 @@
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.026364814382588</v>
+        <v>0.050595302176861</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3881,25 +3881,25 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>141</v>
+        <v>140.95</v>
       </c>
       <c r="K48">
-        <v>-0.65057251908397</v>
+        <v>-0.498408005458267</v>
       </c>
       <c r="L48">
-        <v>-1.28760112970386</v>
+        <v>-1.03951030671255</v>
       </c>
       <c r="M48">
-        <v>-0.162811112516573</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>-0.461398949704943</v>
+        <v>-0.35360624722119</v>
       </c>
       <c r="O48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q48">
         <v>1815287</v>
@@ -3937,7 +3937,7 @@
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.744389827655904</v>
+        <v>0.5</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -3949,25 +3949,25 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>8.016500000000001</v>
+        <v>7.97</v>
       </c>
       <c r="K49">
-        <v>0.0124402424056459</v>
+        <v>0.0084450867052023</v>
       </c>
       <c r="L49">
-        <v>-0.0275191013609002</v>
+        <v>-0.0364493201692541</v>
       </c>
       <c r="M49">
-        <v>0.0719001773111039</v>
+        <v>0.0484805490460338</v>
       </c>
       <c r="N49">
-        <v>0.155182965204838</v>
+        <v>0.105960937330017</v>
       </c>
       <c r="O49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P49" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q49">
         <v>1815287</v>
